--- a/HPP/HPP.xlsx
+++ b/HPP/HPP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheikh M Ahmed\addy\HPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheikh M Ahmed\modelling_MCDM\HPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B2050D-F7F1-4FE8-B77A-F2CB121A615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79580E4D-F9B3-4EAE-B358-FCAE84DDFC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{4AFCC8FF-887C-4348-A004-5C8918726C6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4AFCC8FF-887C-4348-A004-5C8918726C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="HPperformance" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>cap_cost</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>lift_temp</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E096568F-B7E3-427D-A683-362B63B6F8B1}">
-  <dimension ref="B1:F29"/>
+  <dimension ref="B1:F361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,24 +416,24 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>2023</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -442,15 +442,15 @@
         <v>473</v>
       </c>
       <c r="E2">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <v>363</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>2024</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -459,16 +459,15 @@
         <v>473</v>
       </c>
       <c r="E3">
-        <v>479</v>
+        <v>1000</v>
       </c>
       <c r="F3">
-        <f>F2+2</f>
-        <v>365</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>2025</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -477,16 +476,15 @@
         <v>473</v>
       </c>
       <c r="E4">
-        <v>478</v>
+        <v>1000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F29" si="0">F3+2</f>
-        <v>367</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>2026</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -495,443 +493,6062 @@
         <v>473</v>
       </c>
       <c r="E5">
-        <v>477</v>
+        <v>1000</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>369</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>2027</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>473</v>
       </c>
       <c r="E6">
-        <v>476</v>
+        <v>1000</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>371</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>2028</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="E7">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>373</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>2029</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="E8">
-        <v>474</v>
+        <v>1000</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>375</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>2030</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="E9">
-        <v>473</v>
+        <v>1000</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>377</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>2031</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="E10">
-        <v>472</v>
+        <v>1000</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>379</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>2032</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="E11">
-        <v>471</v>
+        <v>1000</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>381</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>2033</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>573</v>
+        <v>473</v>
       </c>
       <c r="E12">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>383</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>2034</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>573</v>
+        <v>473</v>
       </c>
       <c r="E13">
-        <v>469</v>
+        <v>1000</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>385</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>2035</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>573</v>
+        <v>473</v>
       </c>
       <c r="E14">
-        <v>468</v>
+        <v>1000</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>387</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>2036</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>573</v>
+        <v>473</v>
       </c>
       <c r="E15">
-        <v>467</v>
+        <v>1000</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>389</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>2037</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>573</v>
+        <v>473</v>
       </c>
       <c r="E16">
-        <v>466</v>
+        <v>1000</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>391</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>2038</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>573</v>
+        <v>473</v>
       </c>
       <c r="E17">
-        <v>465</v>
+        <v>1000</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>393</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>2039</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>573</v>
+        <v>473</v>
       </c>
       <c r="E18">
-        <v>464</v>
+        <v>1000</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>395</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>2040</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>773</v>
+        <v>473</v>
       </c>
       <c r="E19">
-        <v>463</v>
+        <v>1000</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>397</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>2041</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>773</v>
+        <v>473</v>
       </c>
       <c r="E20">
-        <v>462</v>
+        <v>1000</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>399</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>2042</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>773</v>
+        <v>473</v>
       </c>
       <c r="E21">
-        <v>461</v>
+        <v>1000</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>401</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>2043</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>773</v>
+        <v>473</v>
       </c>
       <c r="E22">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>403</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>2044</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>773</v>
+        <v>473</v>
       </c>
       <c r="E23">
-        <v>459</v>
+        <v>1000</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>405</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24">
-        <v>2045</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>773</v>
+        <v>473</v>
       </c>
       <c r="E24">
-        <v>458</v>
+        <v>1000</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>407</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25">
-        <v>2046</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>773</v>
+        <v>473</v>
       </c>
       <c r="E25">
-        <v>457</v>
+        <v>1000</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>409</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>2047</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>773</v>
+        <v>473</v>
       </c>
       <c r="E26">
-        <v>456</v>
+        <v>1000</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>411</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>2048</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>773</v>
+        <v>473</v>
       </c>
       <c r="E27">
-        <v>455</v>
+        <v>1000</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>413</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>2049</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>773</v>
+        <v>473</v>
       </c>
       <c r="E28">
-        <v>454</v>
+        <v>1000</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>415</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>2050</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>773</v>
+        <v>473</v>
       </c>
       <c r="E29">
-        <v>453</v>
+        <v>1000</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>417</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>473</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+      <c r="F30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>473</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+      <c r="F31">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>473</v>
+      </c>
+      <c r="E32">
+        <v>1000</v>
+      </c>
+      <c r="F32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>473</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+      <c r="F33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>473</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="F34">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>473</v>
+      </c>
+      <c r="E35">
+        <v>1000</v>
+      </c>
+      <c r="F35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>473</v>
+      </c>
+      <c r="E36">
+        <v>1000</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>503</v>
+      </c>
+      <c r="E37">
+        <v>1000</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>503</v>
+      </c>
+      <c r="E38">
+        <v>1000</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>503</v>
+      </c>
+      <c r="E39">
+        <v>1000</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>503</v>
+      </c>
+      <c r="E40">
+        <v>1000</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>503</v>
+      </c>
+      <c r="E41">
+        <v>1000</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>503</v>
+      </c>
+      <c r="E42">
+        <v>1000</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>503</v>
+      </c>
+      <c r="E43">
+        <v>1000</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>503</v>
+      </c>
+      <c r="E44">
+        <v>1000</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>503</v>
+      </c>
+      <c r="E45">
+        <v>1000</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>503</v>
+      </c>
+      <c r="E46">
+        <v>1000</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>503</v>
+      </c>
+      <c r="E47">
+        <v>1000</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>503</v>
+      </c>
+      <c r="E48">
+        <v>1000</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>503</v>
+      </c>
+      <c r="E49">
+        <v>1000</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>503</v>
+      </c>
+      <c r="E50">
+        <v>1000</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>503</v>
+      </c>
+      <c r="E51">
+        <v>1000</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>503</v>
+      </c>
+      <c r="E52">
+        <v>1000</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>503</v>
+      </c>
+      <c r="E53">
+        <v>1000</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>503</v>
+      </c>
+      <c r="E54">
+        <v>1000</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>503</v>
+      </c>
+      <c r="E55">
+        <v>1000</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>503</v>
+      </c>
+      <c r="E56">
+        <v>1000</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>503</v>
+      </c>
+      <c r="E57">
+        <v>1000</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>503</v>
+      </c>
+      <c r="E58">
+        <v>1000</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>503</v>
+      </c>
+      <c r="E59">
+        <v>1000</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>503</v>
+      </c>
+      <c r="E60">
+        <v>1000</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>503</v>
+      </c>
+      <c r="E61">
+        <v>1000</v>
+      </c>
+      <c r="F61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>503</v>
+      </c>
+      <c r="E62">
+        <v>1000</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>503</v>
+      </c>
+      <c r="E63">
+        <v>1000</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>503</v>
+      </c>
+      <c r="E64">
+        <v>1000</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>503</v>
+      </c>
+      <c r="E65">
+        <v>1000</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>503</v>
+      </c>
+      <c r="E66">
+        <v>1000</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>503</v>
+      </c>
+      <c r="E67">
+        <v>1000</v>
+      </c>
+      <c r="F67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>503</v>
+      </c>
+      <c r="E68">
+        <v>1000</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>503</v>
+      </c>
+      <c r="E69">
+        <v>1000</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>503</v>
+      </c>
+      <c r="E70">
+        <v>1000</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>503</v>
+      </c>
+      <c r="E71">
+        <v>1000</v>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>503</v>
+      </c>
+      <c r="E72">
+        <v>1000</v>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>6.2676056338028197</v>
+      </c>
+      <c r="D73">
+        <v>503</v>
+      </c>
+      <c r="E73">
+        <v>1000</v>
+      </c>
+      <c r="F73">
+        <v>102.804828973843</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>6.2887323943661997</v>
+      </c>
+      <c r="D74">
+        <v>511.21596244131501</v>
+      </c>
+      <c r="E74">
+        <v>1000</v>
+      </c>
+      <c r="F74">
+        <v>103.01576123407099</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>6.3098591549295797</v>
+      </c>
+      <c r="D75">
+        <v>511.84060068171601</v>
+      </c>
+      <c r="E75">
+        <v>1000</v>
+      </c>
+      <c r="F75">
+        <v>103.226693494299</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>6.3309859154929597</v>
+      </c>
+      <c r="D76">
+        <v>512.46523892211701</v>
+      </c>
+      <c r="E76">
+        <v>1000</v>
+      </c>
+      <c r="F76">
+        <v>103.43762575452701</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>6.3521126760563398</v>
+      </c>
+      <c r="D77">
+        <v>513.08987716251897</v>
+      </c>
+      <c r="E77">
+        <v>1000</v>
+      </c>
+      <c r="F77">
+        <v>103.648558014755</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>6.3732394366197198</v>
+      </c>
+      <c r="D78">
+        <v>513.71451540292003</v>
+      </c>
+      <c r="E78">
+        <v>1000</v>
+      </c>
+      <c r="F78">
+        <v>103.859490274983</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>6.3943661971830998</v>
+      </c>
+      <c r="D79">
+        <v>514.33915364332097</v>
+      </c>
+      <c r="E79">
+        <v>1000</v>
+      </c>
+      <c r="F79">
+        <v>104.07042253521099</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>6.4154929577464799</v>
+      </c>
+      <c r="D80">
+        <v>514.96379188372305</v>
+      </c>
+      <c r="E80">
+        <v>1000</v>
+      </c>
+      <c r="F80">
+        <v>104.281354795439</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>6.4366197183098599</v>
+      </c>
+      <c r="D81">
+        <v>515.58843012412399</v>
+      </c>
+      <c r="E81">
+        <v>1000</v>
+      </c>
+      <c r="F81">
+        <v>104.49228705566701</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>6.4577464788732399</v>
+      </c>
+      <c r="D82">
+        <v>516.21306836452504</v>
+      </c>
+      <c r="E82">
+        <v>1000</v>
+      </c>
+      <c r="F82">
+        <v>104.703219315895</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>6.47887323943662</v>
+      </c>
+      <c r="D83">
+        <v>516.83770660492598</v>
+      </c>
+      <c r="E83">
+        <v>1000</v>
+      </c>
+      <c r="F83">
+        <v>104.914151576123</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>6.5</v>
+      </c>
+      <c r="D84">
+        <v>517.46234484532795</v>
+      </c>
+      <c r="E84">
+        <v>1000</v>
+      </c>
+      <c r="F84">
+        <v>105.125083836351</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>6.52112676056338</v>
+      </c>
+      <c r="D85">
+        <v>518.086983085729</v>
+      </c>
+      <c r="E85">
+        <v>1000</v>
+      </c>
+      <c r="F85">
+        <v>105.336016096579</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>6.5422535211267601</v>
+      </c>
+      <c r="D86">
+        <v>518.71162132612994</v>
+      </c>
+      <c r="E86">
+        <v>1000</v>
+      </c>
+      <c r="F86">
+        <v>105.54694835680699</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>6.5633802816901401</v>
+      </c>
+      <c r="D87">
+        <v>519.33625956653202</v>
+      </c>
+      <c r="E87">
+        <v>1000</v>
+      </c>
+      <c r="F87">
+        <v>105.75788061703599</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>6.5845070422535201</v>
+      </c>
+      <c r="D88">
+        <v>519.96089780693296</v>
+      </c>
+      <c r="E88">
+        <v>1000</v>
+      </c>
+      <c r="F88">
+        <v>105.968812877264</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>6.6056338028169099</v>
+      </c>
+      <c r="D89">
+        <v>520.58553604733402</v>
+      </c>
+      <c r="E89">
+        <v>1000</v>
+      </c>
+      <c r="F89">
+        <v>106.17974513749201</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>6.62676056338029</v>
+      </c>
+      <c r="D90">
+        <v>521.21017428773598</v>
+      </c>
+      <c r="E90">
+        <v>1000</v>
+      </c>
+      <c r="F90">
+        <v>106.39067739772</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>6.64788732394367</v>
+      </c>
+      <c r="D91">
+        <v>521.83481252813704</v>
+      </c>
+      <c r="E91">
+        <v>1000</v>
+      </c>
+      <c r="F91">
+        <v>106.601609657948</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>6.66901408450705</v>
+      </c>
+      <c r="D92">
+        <v>522.45945076853798</v>
+      </c>
+      <c r="E92">
+        <v>1000</v>
+      </c>
+      <c r="F92">
+        <v>106.812541918176</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>6.6901408450704301</v>
+      </c>
+      <c r="D93">
+        <v>523.08408900894005</v>
+      </c>
+      <c r="E93">
+        <v>1000</v>
+      </c>
+      <c r="F93">
+        <v>107.023474178404</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>6.7112676056338101</v>
+      </c>
+      <c r="D94">
+        <v>523.708727249341</v>
+      </c>
+      <c r="E94">
+        <v>1000</v>
+      </c>
+      <c r="F94">
+        <v>107.23440643863201</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>6.7323943661971901</v>
+      </c>
+      <c r="D95">
+        <v>524.33336548974205</v>
+      </c>
+      <c r="E95">
+        <v>1000</v>
+      </c>
+      <c r="F95">
+        <v>107.44533869886</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>6.7535211267605701</v>
+      </c>
+      <c r="D96">
+        <v>524.95800373014401</v>
+      </c>
+      <c r="E96">
+        <v>1000</v>
+      </c>
+      <c r="F96">
+        <v>107.656270959088</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>6.7746478873239502</v>
+      </c>
+      <c r="D97">
+        <v>525.58264197054496</v>
+      </c>
+      <c r="E97">
+        <v>1000</v>
+      </c>
+      <c r="F97">
+        <v>107.867203219316</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>6.7957746478873302</v>
+      </c>
+      <c r="D98">
+        <v>526.20728021094601</v>
+      </c>
+      <c r="E98">
+        <v>1000</v>
+      </c>
+      <c r="F98">
+        <v>108.078135479544</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>6.8169014084507102</v>
+      </c>
+      <c r="D99">
+        <v>526.83191845134695</v>
+      </c>
+      <c r="E99">
+        <v>1000</v>
+      </c>
+      <c r="F99">
+        <v>108.28906773977199</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>6.8380281690140903</v>
+      </c>
+      <c r="D100">
+        <v>527.45655669174903</v>
+      </c>
+      <c r="E100">
+        <v>1000</v>
+      </c>
+      <c r="F100">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>6.8591549295774703</v>
+      </c>
+      <c r="D101">
+        <v>528.08119493214997</v>
+      </c>
+      <c r="E101">
+        <v>1000</v>
+      </c>
+      <c r="F101">
+        <v>108.71093226022801</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>6.8802816901408503</v>
+      </c>
+      <c r="D102">
+        <v>528.70583317255102</v>
+      </c>
+      <c r="E102">
+        <v>1000</v>
+      </c>
+      <c r="F102">
+        <v>108.921864520456</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>6.9014084507042304</v>
+      </c>
+      <c r="D103">
+        <v>529.33047141295299</v>
+      </c>
+      <c r="E103">
+        <v>1000</v>
+      </c>
+      <c r="F103">
+        <v>109.132796780684</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>6.9225352112676104</v>
+      </c>
+      <c r="D104">
+        <v>529.95510965335404</v>
+      </c>
+      <c r="E104">
+        <v>1000</v>
+      </c>
+      <c r="F104">
+        <v>109.343729040912</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>6.9436619718309904</v>
+      </c>
+      <c r="D105">
+        <v>530.57974789375498</v>
+      </c>
+      <c r="E105">
+        <v>1000</v>
+      </c>
+      <c r="F105">
+        <v>109.55466130114</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>6.9647887323943696</v>
+      </c>
+      <c r="D106">
+        <v>531.20438613415695</v>
+      </c>
+      <c r="E106">
+        <v>1000</v>
+      </c>
+      <c r="F106">
+        <v>109.76559356136799</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>6.9859154929577496</v>
+      </c>
+      <c r="D107">
+        <v>531.829024374558</v>
+      </c>
+      <c r="E107">
+        <v>1000</v>
+      </c>
+      <c r="F107">
+        <v>109.976525821596</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>7.0070422535211296</v>
+      </c>
+      <c r="D108">
+        <v>532.45366261495894</v>
+      </c>
+      <c r="E108">
+        <v>1000</v>
+      </c>
+      <c r="F108">
+        <v>110.187458081824</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>7.0281690140845097</v>
+      </c>
+      <c r="D109">
+        <v>533.07830085536102</v>
+      </c>
+      <c r="E109">
+        <v>1000</v>
+      </c>
+      <c r="F109">
+        <v>110.398390342052</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <v>7.0492957746478897</v>
+      </c>
+      <c r="D110">
+        <v>533.70293909576196</v>
+      </c>
+      <c r="E110">
+        <v>1000</v>
+      </c>
+      <c r="F110">
+        <v>110.60932260228</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>7.0704225352112697</v>
+      </c>
+      <c r="D111">
+        <v>534.32757733616302</v>
+      </c>
+      <c r="E111">
+        <v>1000</v>
+      </c>
+      <c r="F111">
+        <v>110.82025486250799</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>7.0915492957746498</v>
+      </c>
+      <c r="D112">
+        <v>534.95221557656396</v>
+      </c>
+      <c r="E112">
+        <v>1000</v>
+      </c>
+      <c r="F112">
+        <v>111.031187122736</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>7.1126760563380298</v>
+      </c>
+      <c r="D113">
+        <v>535.57685381696604</v>
+      </c>
+      <c r="E113">
+        <v>1000</v>
+      </c>
+      <c r="F113">
+        <v>111.24211938296401</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>7.1338028169014098</v>
+      </c>
+      <c r="D114">
+        <v>536.20149205736698</v>
+      </c>
+      <c r="E114">
+        <v>1000</v>
+      </c>
+      <c r="F114">
+        <v>111.453051643192</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>7.1549295774647899</v>
+      </c>
+      <c r="D115">
+        <v>536.82613029776803</v>
+      </c>
+      <c r="E115">
+        <v>1000</v>
+      </c>
+      <c r="F115">
+        <v>111.66398390342</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>7.1760563380281699</v>
+      </c>
+      <c r="D116">
+        <v>537.45076853817</v>
+      </c>
+      <c r="E116">
+        <v>1000</v>
+      </c>
+      <c r="F116">
+        <v>111.874916163649</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>7.1971830985915499</v>
+      </c>
+      <c r="D117">
+        <v>538.07540677857105</v>
+      </c>
+      <c r="E117">
+        <v>1000</v>
+      </c>
+      <c r="F117">
+        <v>112.085848423877</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>7.21830985915493</v>
+      </c>
+      <c r="D118">
+        <v>538.70004501897199</v>
+      </c>
+      <c r="E118">
+        <v>1000</v>
+      </c>
+      <c r="F118">
+        <v>112.296780684105</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>7.23943661971831</v>
+      </c>
+      <c r="D119">
+        <v>539.32468325937396</v>
+      </c>
+      <c r="E119">
+        <v>1000</v>
+      </c>
+      <c r="F119">
+        <v>112.50771294433299</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <v>7.26056338028169</v>
+      </c>
+      <c r="D120">
+        <v>539.94932149977501</v>
+      </c>
+      <c r="E120">
+        <v>1000</v>
+      </c>
+      <c r="F120">
+        <v>112.718645204561</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>7.28169014084507</v>
+      </c>
+      <c r="D121">
+        <v>540.57395974017595</v>
+      </c>
+      <c r="E121">
+        <v>1000</v>
+      </c>
+      <c r="F121">
+        <v>112.92957746478901</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>7.3028169014084501</v>
+      </c>
+      <c r="D122">
+        <v>541.19859798057803</v>
+      </c>
+      <c r="E122">
+        <v>1000</v>
+      </c>
+      <c r="F122">
+        <v>113.140509725017</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>7.3239436619718301</v>
+      </c>
+      <c r="D123">
+        <v>541.82323622097897</v>
+      </c>
+      <c r="E123">
+        <v>1000</v>
+      </c>
+      <c r="F123">
+        <v>113.351441985245</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <v>7.3450704225352199</v>
+      </c>
+      <c r="D124">
+        <v>542.44787446138002</v>
+      </c>
+      <c r="E124">
+        <v>1000</v>
+      </c>
+      <c r="F124">
+        <v>113.56237424547299</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <v>7.3661971830985999</v>
+      </c>
+      <c r="D125">
+        <v>543.07251270178199</v>
+      </c>
+      <c r="E125">
+        <v>1000</v>
+      </c>
+      <c r="F125">
+        <v>113.773306505701</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126">
+        <v>7.38732394366198</v>
+      </c>
+      <c r="D126">
+        <v>543.69715094218304</v>
+      </c>
+      <c r="E126">
+        <v>1000</v>
+      </c>
+      <c r="F126">
+        <v>113.98423876592901</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>7.40845070422536</v>
+      </c>
+      <c r="D127">
+        <v>544.32178918258398</v>
+      </c>
+      <c r="E127">
+        <v>1000</v>
+      </c>
+      <c r="F127">
+        <v>114.195171026157</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <v>7.42957746478874</v>
+      </c>
+      <c r="D128">
+        <v>544.94642742298504</v>
+      </c>
+      <c r="E128">
+        <v>1000</v>
+      </c>
+      <c r="F128">
+        <v>114.406103286385</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>7.4507042253521201</v>
+      </c>
+      <c r="D129">
+        <v>545.571065663387</v>
+      </c>
+      <c r="E129">
+        <v>1000</v>
+      </c>
+      <c r="F129">
+        <v>114.617035546613</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130">
+        <v>7.4718309859155001</v>
+      </c>
+      <c r="D130">
+        <v>546.19570390378794</v>
+      </c>
+      <c r="E130">
+        <v>1000</v>
+      </c>
+      <c r="F130">
+        <v>114.827967806841</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131">
+        <v>7.4929577464788801</v>
+      </c>
+      <c r="D131">
+        <v>546.820342144189</v>
+      </c>
+      <c r="E131">
+        <v>1000</v>
+      </c>
+      <c r="F131">
+        <v>115.03890006706899</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132">
+        <v>7.5140845070422602</v>
+      </c>
+      <c r="D132">
+        <v>547.44498038459096</v>
+      </c>
+      <c r="E132">
+        <v>1000</v>
+      </c>
+      <c r="F132">
+        <v>115.249832327297</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133">
+        <v>7.5352112676056402</v>
+      </c>
+      <c r="D133">
+        <v>548.06961862499202</v>
+      </c>
+      <c r="E133">
+        <v>1000</v>
+      </c>
+      <c r="F133">
+        <v>115.46076458752501</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134">
+        <v>7.5563380281690202</v>
+      </c>
+      <c r="D134">
+        <v>548.69425686539296</v>
+      </c>
+      <c r="E134">
+        <v>1000</v>
+      </c>
+      <c r="F134">
+        <v>115.671696847753</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135">
+        <v>7.5774647887324003</v>
+      </c>
+      <c r="D135">
+        <v>549.31889510579504</v>
+      </c>
+      <c r="E135">
+        <v>1000</v>
+      </c>
+      <c r="F135">
+        <v>115.882629107981</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136">
+        <v>7.5985915492957803</v>
+      </c>
+      <c r="D136">
+        <v>549.94353334619598</v>
+      </c>
+      <c r="E136">
+        <v>1000</v>
+      </c>
+      <c r="F136">
+        <v>116.093561368209</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137">
+        <v>7.6197183098591603</v>
+      </c>
+      <c r="D137">
+        <v>550.56817158659703</v>
+      </c>
+      <c r="E137">
+        <v>1000</v>
+      </c>
+      <c r="F137">
+        <v>116.304493628437</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138">
+        <v>7.6408450704225404</v>
+      </c>
+      <c r="D138">
+        <v>551.192809826999</v>
+      </c>
+      <c r="E138">
+        <v>1000</v>
+      </c>
+      <c r="F138">
+        <v>116.51542588866501</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139">
+        <v>7.6619718309859204</v>
+      </c>
+      <c r="D139">
+        <v>551.81744806740005</v>
+      </c>
+      <c r="E139">
+        <v>1000</v>
+      </c>
+      <c r="F139">
+        <v>116.726358148893</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140">
+        <v>7.6830985915493004</v>
+      </c>
+      <c r="D140">
+        <v>552.44208630780099</v>
+      </c>
+      <c r="E140">
+        <v>1000</v>
+      </c>
+      <c r="F140">
+        <v>116.937290409121</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141">
+        <v>7.7042253521126796</v>
+      </c>
+      <c r="D141">
+        <v>553.06672454820296</v>
+      </c>
+      <c r="E141">
+        <v>1000</v>
+      </c>
+      <c r="F141">
+        <v>117.148222669349</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142">
+        <v>7.7253521126760596</v>
+      </c>
+      <c r="D142">
+        <v>553.69136278860401</v>
+      </c>
+      <c r="E142">
+        <v>1000</v>
+      </c>
+      <c r="F142">
+        <v>117.359154929577</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143">
+        <v>7.7464788732394396</v>
+      </c>
+      <c r="D143">
+        <v>554.31600102900495</v>
+      </c>
+      <c r="E143">
+        <v>1000</v>
+      </c>
+      <c r="F143">
+        <v>117.57008718980499</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144">
+        <v>7.7676056338028197</v>
+      </c>
+      <c r="D144">
+        <v>554.94063926940601</v>
+      </c>
+      <c r="E144">
+        <v>1000</v>
+      </c>
+      <c r="F144">
+        <v>117.781019450033</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145">
+        <v>7.7887323943661997</v>
+      </c>
+      <c r="D145">
+        <v>555.56527750980797</v>
+      </c>
+      <c r="E145">
+        <v>1000</v>
+      </c>
+      <c r="F145">
+        <v>117.991951710262</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146">
+        <v>7.8098591549295797</v>
+      </c>
+      <c r="D146">
+        <v>556.18991575020902</v>
+      </c>
+      <c r="E146">
+        <v>1000</v>
+      </c>
+      <c r="F146">
+        <v>118.20288397049001</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147">
+        <v>7.8309859154929597</v>
+      </c>
+      <c r="D147">
+        <v>556.81455399060997</v>
+      </c>
+      <c r="E147">
+        <v>1000</v>
+      </c>
+      <c r="F147">
+        <v>118.413816230718</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148">
+        <v>7.8521126760563398</v>
+      </c>
+      <c r="D148">
+        <v>557.43919223101204</v>
+      </c>
+      <c r="E148">
+        <v>1000</v>
+      </c>
+      <c r="F148">
+        <v>118.624748490946</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149">
+        <v>7.8732394366197198</v>
+      </c>
+      <c r="D149">
+        <v>558.06383047141298</v>
+      </c>
+      <c r="E149">
+        <v>1000</v>
+      </c>
+      <c r="F149">
+        <v>118.835680751174</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150">
+        <v>7.8943661971830998</v>
+      </c>
+      <c r="D150">
+        <v>558.68846871181404</v>
+      </c>
+      <c r="E150">
+        <v>1000</v>
+      </c>
+      <c r="F150">
+        <v>119.046613011402</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151">
+        <v>7.9154929577464799</v>
+      </c>
+      <c r="D151">
+        <v>559.313106952216</v>
+      </c>
+      <c r="E151">
+        <v>1000</v>
+      </c>
+      <c r="F151">
+        <v>119.25754527162999</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152">
+        <v>7.9366197183098599</v>
+      </c>
+      <c r="D152">
+        <v>559.93774519261694</v>
+      </c>
+      <c r="E152">
+        <v>1000</v>
+      </c>
+      <c r="F152">
+        <v>119.468477531858</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153">
+        <v>7.9577464788732399</v>
+      </c>
+      <c r="D153">
+        <v>560.562383433018</v>
+      </c>
+      <c r="E153">
+        <v>1000</v>
+      </c>
+      <c r="F153">
+        <v>119.67940979208601</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154">
+        <v>7.97887323943662</v>
+      </c>
+      <c r="D154">
+        <v>561.18702167341996</v>
+      </c>
+      <c r="E154">
+        <v>1000</v>
+      </c>
+      <c r="F154">
+        <v>119.890342052314</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>561.81165991382102</v>
+      </c>
+      <c r="E155">
+        <v>1000</v>
+      </c>
+      <c r="F155">
+        <v>120.101274312542</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156">
+        <v>8.02112676056338</v>
+      </c>
+      <c r="D156">
+        <v>562.43629815422196</v>
+      </c>
+      <c r="E156">
+        <v>1000</v>
+      </c>
+      <c r="F156">
+        <v>120.31220657276999</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157">
+        <v>8.0422535211267601</v>
+      </c>
+      <c r="D157">
+        <v>563.06093639462404</v>
+      </c>
+      <c r="E157">
+        <v>1000</v>
+      </c>
+      <c r="F157">
+        <v>120.523138832998</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158">
+        <v>8.0633802816901401</v>
+      </c>
+      <c r="D158">
+        <v>563.68557463502498</v>
+      </c>
+      <c r="E158">
+        <v>1000</v>
+      </c>
+      <c r="F158">
+        <v>120.73407109322601</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159">
+        <v>8.0845070422535308</v>
+      </c>
+      <c r="D159">
+        <v>564.31021287542603</v>
+      </c>
+      <c r="E159">
+        <v>1000</v>
+      </c>
+      <c r="F159">
+        <v>120.945003353454</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160">
+        <v>8.1056338028169108</v>
+      </c>
+      <c r="D160">
+        <v>564.93485111582697</v>
+      </c>
+      <c r="E160">
+        <v>1000</v>
+      </c>
+      <c r="F160">
+        <v>121.155935613682</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161">
+        <v>8.1267605633802908</v>
+      </c>
+      <c r="D161">
+        <v>565.55948935622905</v>
+      </c>
+      <c r="E161">
+        <v>1000</v>
+      </c>
+      <c r="F161">
+        <v>121.36686787391</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162">
+        <v>8.1478873239436709</v>
+      </c>
+      <c r="D162">
+        <v>566.18412759662999</v>
+      </c>
+      <c r="E162">
+        <v>1000</v>
+      </c>
+      <c r="F162">
+        <v>121.577800134138</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163">
+        <v>8.1690140845070491</v>
+      </c>
+      <c r="D163">
+        <v>566.80876583703105</v>
+      </c>
+      <c r="E163">
+        <v>1000</v>
+      </c>
+      <c r="F163">
+        <v>121.78873239436599</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164">
+        <v>8.1901408450704292</v>
+      </c>
+      <c r="D164">
+        <v>567.43340407743301</v>
+      </c>
+      <c r="E164">
+        <v>1000</v>
+      </c>
+      <c r="F164">
+        <v>121.999664654594</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165">
+        <v>8.2112676056338092</v>
+      </c>
+      <c r="D165">
+        <v>568.05804231783395</v>
+      </c>
+      <c r="E165">
+        <v>1000</v>
+      </c>
+      <c r="F165">
+        <v>122.21059691482201</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166">
+        <v>8.2323943661971892</v>
+      </c>
+      <c r="D166">
+        <v>568.68268055823501</v>
+      </c>
+      <c r="E166">
+        <v>1000</v>
+      </c>
+      <c r="F166">
+        <v>122.42152917505</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167">
+        <v>8.2535211267605693</v>
+      </c>
+      <c r="D167">
+        <v>569.30731879863697</v>
+      </c>
+      <c r="E167">
+        <v>1000</v>
+      </c>
+      <c r="F167">
+        <v>122.632461435278</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168">
+        <v>8.2746478873239493</v>
+      </c>
+      <c r="D168">
+        <v>569.93195703903802</v>
+      </c>
+      <c r="E168">
+        <v>1000</v>
+      </c>
+      <c r="F168">
+        <v>122.84339369550599</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169">
+        <v>8.2957746478873293</v>
+      </c>
+      <c r="D169">
+        <v>570.55659527943897</v>
+      </c>
+      <c r="E169">
+        <v>1000</v>
+      </c>
+      <c r="F169">
+        <v>123.054325955734</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170">
+        <v>8.3169014084507094</v>
+      </c>
+      <c r="D170">
+        <v>571.18123351984002</v>
+      </c>
+      <c r="E170">
+        <v>1000</v>
+      </c>
+      <c r="F170">
+        <v>123.26525821596201</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171">
+        <v>8.3380281690140894</v>
+      </c>
+      <c r="D171">
+        <v>571.80587176024198</v>
+      </c>
+      <c r="E171">
+        <v>1000</v>
+      </c>
+      <c r="F171">
+        <v>123.47619047619</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172">
+        <v>8.3591549295774694</v>
+      </c>
+      <c r="D172">
+        <v>572.43051000064304</v>
+      </c>
+      <c r="E172">
+        <v>1000</v>
+      </c>
+      <c r="F172">
+        <v>123.687122736418</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173">
+        <v>8.3802816901408494</v>
+      </c>
+      <c r="D173">
+        <v>573.05514824104398</v>
+      </c>
+      <c r="E173">
+        <v>1000</v>
+      </c>
+      <c r="F173">
+        <v>123.89805499664701</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174">
+        <v>8.4014084507042295</v>
+      </c>
+      <c r="D174">
+        <v>573.67978648144594</v>
+      </c>
+      <c r="E174">
+        <v>1000</v>
+      </c>
+      <c r="F174">
+        <v>124.108987256875</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175">
+        <v>8.4225352112676095</v>
+      </c>
+      <c r="D175">
+        <v>574.304424721847</v>
+      </c>
+      <c r="E175">
+        <v>1000</v>
+      </c>
+      <c r="F175">
+        <v>124.319919517103</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176">
+        <v>8.4436619718309895</v>
+      </c>
+      <c r="D176">
+        <v>574.92906296224805</v>
+      </c>
+      <c r="E176">
+        <v>1000</v>
+      </c>
+      <c r="F176">
+        <v>124.53085177733099</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177">
+        <v>8.4647887323943696</v>
+      </c>
+      <c r="D177">
+        <v>575.55370120265002</v>
+      </c>
+      <c r="E177">
+        <v>1000</v>
+      </c>
+      <c r="F177">
+        <v>124.741784037559</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178">
+        <v>8.4859154929577496</v>
+      </c>
+      <c r="D178">
+        <v>576.17833944305096</v>
+      </c>
+      <c r="E178">
+        <v>1000</v>
+      </c>
+      <c r="F178">
+        <v>124.95271629778701</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179">
+        <v>8.5070422535211296</v>
+      </c>
+      <c r="D179">
+        <v>576.80297768345201</v>
+      </c>
+      <c r="E179">
+        <v>1000</v>
+      </c>
+      <c r="F179">
+        <v>125.163648558015</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180">
+        <v>8.5281690140845097</v>
+      </c>
+      <c r="D180">
+        <v>577.42761592385398</v>
+      </c>
+      <c r="E180">
+        <v>1000</v>
+      </c>
+      <c r="F180">
+        <v>125.374580818243</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181">
+        <v>8.5492957746478897</v>
+      </c>
+      <c r="D181">
+        <v>578.05225416425503</v>
+      </c>
+      <c r="E181">
+        <v>1000</v>
+      </c>
+      <c r="F181">
+        <v>125.585513078471</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182">
+        <v>8.5704225352112697</v>
+      </c>
+      <c r="D182">
+        <v>578.67689240465597</v>
+      </c>
+      <c r="E182">
+        <v>1000</v>
+      </c>
+      <c r="F182">
+        <v>125.796445338699</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183">
+        <v>8.5915492957746498</v>
+      </c>
+      <c r="D183">
+        <v>579.30153064505805</v>
+      </c>
+      <c r="E183">
+        <v>1000</v>
+      </c>
+      <c r="F183">
+        <v>126.00737759892699</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184">
+        <v>8.6126760563380298</v>
+      </c>
+      <c r="D184">
+        <v>579.92616888545899</v>
+      </c>
+      <c r="E184">
+        <v>1000</v>
+      </c>
+      <c r="F184">
+        <v>126.218309859155</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185">
+        <v>8.6338028169014098</v>
+      </c>
+      <c r="D185">
+        <v>580.55080712586005</v>
+      </c>
+      <c r="E185">
+        <v>1000</v>
+      </c>
+      <c r="F185">
+        <v>126.42924211938301</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186">
+        <v>8.6549295774647899</v>
+      </c>
+      <c r="D186">
+        <v>581.17544536626099</v>
+      </c>
+      <c r="E186">
+        <v>1000</v>
+      </c>
+      <c r="F186">
+        <v>126.640174379611</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187">
+        <v>8.6760563380281699</v>
+      </c>
+      <c r="D187">
+        <v>581.80008360666295</v>
+      </c>
+      <c r="E187">
+        <v>1000</v>
+      </c>
+      <c r="F187">
+        <v>126.851106639839</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188">
+        <v>8.6971830985915499</v>
+      </c>
+      <c r="D188">
+        <v>582.42472184706401</v>
+      </c>
+      <c r="E188">
+        <v>1000</v>
+      </c>
+      <c r="F188">
+        <v>127.06203890006699</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189">
+        <v>8.71830985915493</v>
+      </c>
+      <c r="D189">
+        <v>583.04936008746495</v>
+      </c>
+      <c r="E189">
+        <v>1000</v>
+      </c>
+      <c r="F189">
+        <v>127.272971160295</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190">
+        <v>8.73943661971831</v>
+      </c>
+      <c r="D190">
+        <v>583.67399832786703</v>
+      </c>
+      <c r="E190">
+        <v>1000</v>
+      </c>
+      <c r="F190">
+        <v>127.48390342052301</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191">
+        <v>8.76056338028169</v>
+      </c>
+      <c r="D191">
+        <v>584.29863656826797</v>
+      </c>
+      <c r="E191">
+        <v>1000</v>
+      </c>
+      <c r="F191">
+        <v>127.694835680751</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192">
+        <v>8.78169014084507</v>
+      </c>
+      <c r="D192">
+        <v>584.92327480866902</v>
+      </c>
+      <c r="E192">
+        <v>1000</v>
+      </c>
+      <c r="F192">
+        <v>127.905767940979</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193">
+        <v>8.8028169014084501</v>
+      </c>
+      <c r="D193">
+        <v>585.54791304907098</v>
+      </c>
+      <c r="E193">
+        <v>1000</v>
+      </c>
+      <c r="F193">
+        <v>128.11670020120701</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194">
+        <v>8.8239436619718408</v>
+      </c>
+      <c r="D194">
+        <v>586.17255128947204</v>
+      </c>
+      <c r="E194">
+        <v>1000</v>
+      </c>
+      <c r="F194">
+        <v>128.327632461435</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195">
+        <v>8.8450704225352208</v>
+      </c>
+      <c r="D195">
+        <v>586.79718952987298</v>
+      </c>
+      <c r="E195">
+        <v>1000</v>
+      </c>
+      <c r="F195">
+        <v>128.53856472166299</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196">
+        <v>8.8661971830986008</v>
+      </c>
+      <c r="D196">
+        <v>587.42182777027494</v>
+      </c>
+      <c r="E196">
+        <v>1000</v>
+      </c>
+      <c r="F196">
+        <v>128.74949698189101</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>196</v>
+      </c>
+      <c r="C197">
+        <v>8.8873239436619809</v>
+      </c>
+      <c r="D197">
+        <v>588.046466010676</v>
+      </c>
+      <c r="E197">
+        <v>1000</v>
+      </c>
+      <c r="F197">
+        <v>128.96042924211901</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>197</v>
+      </c>
+      <c r="C198">
+        <v>8.9084507042253591</v>
+      </c>
+      <c r="D198">
+        <v>588.67110425107705</v>
+      </c>
+      <c r="E198">
+        <v>1000</v>
+      </c>
+      <c r="F198">
+        <v>129.171361502347</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>198</v>
+      </c>
+      <c r="C199">
+        <v>8.9295774647887391</v>
+      </c>
+      <c r="D199">
+        <v>589.29574249147902</v>
+      </c>
+      <c r="E199">
+        <v>1000</v>
+      </c>
+      <c r="F199">
+        <v>129.38229376257601</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200">
+        <v>8.9507042253521192</v>
+      </c>
+      <c r="D200">
+        <v>589.92038073187996</v>
+      </c>
+      <c r="E200">
+        <v>1000</v>
+      </c>
+      <c r="F200">
+        <v>129.59322602280301</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>200</v>
+      </c>
+      <c r="C201">
+        <v>8.9718309859154992</v>
+      </c>
+      <c r="D201">
+        <v>590.54501897228101</v>
+      </c>
+      <c r="E201">
+        <v>1000</v>
+      </c>
+      <c r="F201">
+        <v>129.804158283031</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>201</v>
+      </c>
+      <c r="C202">
+        <v>8.9929577464788792</v>
+      </c>
+      <c r="D202">
+        <v>591.16965721268195</v>
+      </c>
+      <c r="E202">
+        <v>1000</v>
+      </c>
+      <c r="F202">
+        <v>130.01509054325999</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>202</v>
+      </c>
+      <c r="C203">
+        <v>9.0140845070422593</v>
+      </c>
+      <c r="D203">
+        <v>591.79429545308403</v>
+      </c>
+      <c r="E203">
+        <v>1000</v>
+      </c>
+      <c r="F203">
+        <v>130.22602280348801</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>203</v>
+      </c>
+      <c r="C204">
+        <v>9.0352112676056393</v>
+      </c>
+      <c r="D204">
+        <v>592.41893369348497</v>
+      </c>
+      <c r="E204">
+        <v>1000</v>
+      </c>
+      <c r="F204">
+        <v>130.436955063716</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>204</v>
+      </c>
+      <c r="C205">
+        <v>9.0563380281690193</v>
+      </c>
+      <c r="D205">
+        <v>593.04357193388603</v>
+      </c>
+      <c r="E205">
+        <v>1000</v>
+      </c>
+      <c r="F205">
+        <v>130.64788732394399</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>205</v>
+      </c>
+      <c r="C206">
+        <v>9.0774647887323994</v>
+      </c>
+      <c r="D206">
+        <v>593.66821017428799</v>
+      </c>
+      <c r="E206">
+        <v>1000</v>
+      </c>
+      <c r="F206">
+        <v>130.85881958417201</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>206</v>
+      </c>
+      <c r="C207">
+        <v>9.0985915492957794</v>
+      </c>
+      <c r="D207">
+        <v>594.29284841468905</v>
+      </c>
+      <c r="E207">
+        <v>1000</v>
+      </c>
+      <c r="F207">
+        <v>131.0697518444</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>207</v>
+      </c>
+      <c r="C208">
+        <v>9.1197183098591594</v>
+      </c>
+      <c r="D208">
+        <v>594.91748665508999</v>
+      </c>
+      <c r="E208">
+        <v>1000</v>
+      </c>
+      <c r="F208">
+        <v>131.28068410462799</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>208</v>
+      </c>
+      <c r="C209">
+        <v>9.1408450704225395</v>
+      </c>
+      <c r="D209">
+        <v>595.54212489549195</v>
+      </c>
+      <c r="E209">
+        <v>1000</v>
+      </c>
+      <c r="F209">
+        <v>131.49161636485599</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>209</v>
+      </c>
+      <c r="C210">
+        <v>9.1619718309859195</v>
+      </c>
+      <c r="D210">
+        <v>596.16676313589301</v>
+      </c>
+      <c r="E210">
+        <v>1000</v>
+      </c>
+      <c r="F210">
+        <v>131.70254862508401</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>210</v>
+      </c>
+      <c r="C211">
+        <v>9.1830985915492995</v>
+      </c>
+      <c r="D211">
+        <v>596.79140137629395</v>
+      </c>
+      <c r="E211">
+        <v>1000</v>
+      </c>
+      <c r="F211">
+        <v>131.913480885312</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>211</v>
+      </c>
+      <c r="C212">
+        <v>9.2042253521126796</v>
+      </c>
+      <c r="D212">
+        <v>597.41603961669603</v>
+      </c>
+      <c r="E212">
+        <v>1000</v>
+      </c>
+      <c r="F212">
+        <v>132.12441314553999</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>212</v>
+      </c>
+      <c r="C213">
+        <v>9.2253521126760596</v>
+      </c>
+      <c r="D213">
+        <v>598.04067785709697</v>
+      </c>
+      <c r="E213">
+        <v>1000</v>
+      </c>
+      <c r="F213">
+        <v>132.33534540576801</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>213</v>
+      </c>
+      <c r="C214">
+        <v>9.2464788732394396</v>
+      </c>
+      <c r="D214">
+        <v>598.66531609749802</v>
+      </c>
+      <c r="E214">
+        <v>1000</v>
+      </c>
+      <c r="F214">
+        <v>132.546277665996</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>214</v>
+      </c>
+      <c r="C215">
+        <v>9.2676056338028197</v>
+      </c>
+      <c r="D215">
+        <v>599.28995433789896</v>
+      </c>
+      <c r="E215">
+        <v>1000</v>
+      </c>
+      <c r="F215">
+        <v>132.75720992622399</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>215</v>
+      </c>
+      <c r="C216">
+        <v>9.2887323943661997</v>
+      </c>
+      <c r="D216">
+        <v>599.91459257830104</v>
+      </c>
+      <c r="E216">
+        <v>1000</v>
+      </c>
+      <c r="F216">
+        <v>132.96814218645201</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>216</v>
+      </c>
+      <c r="C217">
+        <v>9.3098591549295797</v>
+      </c>
+      <c r="D217">
+        <v>600.53923081870198</v>
+      </c>
+      <c r="E217">
+        <v>1000</v>
+      </c>
+      <c r="F217">
+        <v>133.17907444668</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>217</v>
+      </c>
+      <c r="C218">
+        <v>9.3309859154929597</v>
+      </c>
+      <c r="D218">
+        <v>601.16386905910304</v>
+      </c>
+      <c r="E218">
+        <v>1000</v>
+      </c>
+      <c r="F218">
+        <v>133.390006706908</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>218</v>
+      </c>
+      <c r="C219">
+        <v>9.3521126760563398</v>
+      </c>
+      <c r="D219">
+        <v>601.788507299505</v>
+      </c>
+      <c r="E219">
+        <v>1000</v>
+      </c>
+      <c r="F219">
+        <v>133.60093896713599</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>219</v>
+      </c>
+      <c r="C220">
+        <v>9.3732394366197198</v>
+      </c>
+      <c r="D220">
+        <v>602.41314553990605</v>
+      </c>
+      <c r="E220">
+        <v>1000</v>
+      </c>
+      <c r="F220">
+        <v>133.81187122736401</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>220</v>
+      </c>
+      <c r="C221">
+        <v>9.3943661971830998</v>
+      </c>
+      <c r="D221">
+        <v>603.037783780307</v>
+      </c>
+      <c r="E221">
+        <v>1000</v>
+      </c>
+      <c r="F221">
+        <v>134.022803487592</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>221</v>
+      </c>
+      <c r="C222">
+        <v>9.4154929577464799</v>
+      </c>
+      <c r="D222">
+        <v>603.66242202070896</v>
+      </c>
+      <c r="E222">
+        <v>1000</v>
+      </c>
+      <c r="F222">
+        <v>134.23373574781999</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>222</v>
+      </c>
+      <c r="C223">
+        <v>9.4366197183098599</v>
+      </c>
+      <c r="D223">
+        <v>604.28706026111001</v>
+      </c>
+      <c r="E223">
+        <v>1000</v>
+      </c>
+      <c r="F223">
+        <v>134.44466800804801</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>223</v>
+      </c>
+      <c r="C224">
+        <v>9.4577464788732399</v>
+      </c>
+      <c r="D224">
+        <v>604.91169850151095</v>
+      </c>
+      <c r="E224">
+        <v>1000</v>
+      </c>
+      <c r="F224">
+        <v>134.655600268276</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>224</v>
+      </c>
+      <c r="C225">
+        <v>9.47887323943662</v>
+      </c>
+      <c r="D225">
+        <v>605.53633674191303</v>
+      </c>
+      <c r="E225">
+        <v>1000</v>
+      </c>
+      <c r="F225">
+        <v>134.866532528504</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>225</v>
+      </c>
+      <c r="C226">
+        <v>9.5</v>
+      </c>
+      <c r="D226">
+        <v>606.16097498231397</v>
+      </c>
+      <c r="E226">
+        <v>1000</v>
+      </c>
+      <c r="F226">
+        <v>135.07746478873199</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>226</v>
+      </c>
+      <c r="C227">
+        <v>9.52112676056338</v>
+      </c>
+      <c r="D227">
+        <v>606.78561322271503</v>
+      </c>
+      <c r="E227">
+        <v>1000</v>
+      </c>
+      <c r="F227">
+        <v>135.28839704896001</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>227</v>
+      </c>
+      <c r="C228">
+        <v>9.5422535211267601</v>
+      </c>
+      <c r="D228">
+        <v>607.41025146311699</v>
+      </c>
+      <c r="E228">
+        <v>1000</v>
+      </c>
+      <c r="F228">
+        <v>135.499329309188</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>228</v>
+      </c>
+      <c r="C229">
+        <v>9.5633802816901508</v>
+      </c>
+      <c r="D229">
+        <v>608.03488970351805</v>
+      </c>
+      <c r="E229">
+        <v>1000</v>
+      </c>
+      <c r="F229">
+        <v>135.71026156941701</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>229</v>
+      </c>
+      <c r="C230">
+        <v>9.5845070422535308</v>
+      </c>
+      <c r="D230">
+        <v>608.65952794391899</v>
+      </c>
+      <c r="E230">
+        <v>1000</v>
+      </c>
+      <c r="F230">
+        <v>135.92119382964401</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>230</v>
+      </c>
+      <c r="C231">
+        <v>9.6056338028169108</v>
+      </c>
+      <c r="D231">
+        <v>609.28416618432004</v>
+      </c>
+      <c r="E231">
+        <v>1000</v>
+      </c>
+      <c r="F231">
+        <v>136.132126089873</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>231</v>
+      </c>
+      <c r="C232">
+        <v>9.6267605633802908</v>
+      </c>
+      <c r="D232">
+        <v>609.90880442472201</v>
+      </c>
+      <c r="E232">
+        <v>1000</v>
+      </c>
+      <c r="F232">
+        <v>136.34305835010099</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>232</v>
+      </c>
+      <c r="C233">
+        <v>9.6478873239436709</v>
+      </c>
+      <c r="D233">
+        <v>610.53344266512295</v>
+      </c>
+      <c r="E233">
+        <v>1000</v>
+      </c>
+      <c r="F233">
+        <v>136.55399061032901</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>233</v>
+      </c>
+      <c r="C234">
+        <v>9.6690140845070491</v>
+      </c>
+      <c r="D234">
+        <v>611.158080905524</v>
+      </c>
+      <c r="E234">
+        <v>1000</v>
+      </c>
+      <c r="F234">
+        <v>136.764922870557</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>234</v>
+      </c>
+      <c r="C235">
+        <v>9.6901408450704292</v>
+      </c>
+      <c r="D235">
+        <v>611.78271914592597</v>
+      </c>
+      <c r="E235">
+        <v>1000</v>
+      </c>
+      <c r="F235">
+        <v>136.97585513078499</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>235</v>
+      </c>
+      <c r="C236">
+        <v>9.7112676056338092</v>
+      </c>
+      <c r="D236">
+        <v>612.40735738632702</v>
+      </c>
+      <c r="E236">
+        <v>1000</v>
+      </c>
+      <c r="F236">
+        <v>137.18678739101301</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>236</v>
+      </c>
+      <c r="C237">
+        <v>9.7323943661971892</v>
+      </c>
+      <c r="D237">
+        <v>613.03199562672796</v>
+      </c>
+      <c r="E237">
+        <v>1000</v>
+      </c>
+      <c r="F237">
+        <v>137.397719651241</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>237</v>
+      </c>
+      <c r="C238">
+        <v>9.7535211267605693</v>
+      </c>
+      <c r="D238">
+        <v>613.65663386713004</v>
+      </c>
+      <c r="E238">
+        <v>1000</v>
+      </c>
+      <c r="F238">
+        <v>137.608651911469</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>238</v>
+      </c>
+      <c r="C239">
+        <v>9.7746478873239493</v>
+      </c>
+      <c r="D239">
+        <v>614.28127210753098</v>
+      </c>
+      <c r="E239">
+        <v>1000</v>
+      </c>
+      <c r="F239">
+        <v>137.81958417169699</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>239</v>
+      </c>
+      <c r="C240">
+        <v>9.7957746478873293</v>
+      </c>
+      <c r="D240">
+        <v>614.90591034793204</v>
+      </c>
+      <c r="E240">
+        <v>1000</v>
+      </c>
+      <c r="F240">
+        <v>138.03051643192501</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>240</v>
+      </c>
+      <c r="C241">
+        <v>9.8169014084507094</v>
+      </c>
+      <c r="D241">
+        <v>615.530548588334</v>
+      </c>
+      <c r="E241">
+        <v>1000</v>
+      </c>
+      <c r="F241">
+        <v>138.241448692153</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>241</v>
+      </c>
+      <c r="C242">
+        <v>9.8380281690140894</v>
+      </c>
+      <c r="D242">
+        <v>616.15518682873505</v>
+      </c>
+      <c r="E242">
+        <v>1000</v>
+      </c>
+      <c r="F242">
+        <v>138.45238095238099</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>242</v>
+      </c>
+      <c r="C243">
+        <v>9.8591549295774694</v>
+      </c>
+      <c r="D243">
+        <v>616.779825069136</v>
+      </c>
+      <c r="E243">
+        <v>1000</v>
+      </c>
+      <c r="F243">
+        <v>138.66331321260901</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>243</v>
+      </c>
+      <c r="C244">
+        <v>9.8802816901408494</v>
+      </c>
+      <c r="D244">
+        <v>617.40446330953796</v>
+      </c>
+      <c r="E244">
+        <v>1000</v>
+      </c>
+      <c r="F244">
+        <v>138.874245472837</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>244</v>
+      </c>
+      <c r="C245">
+        <v>9.9014084507042295</v>
+      </c>
+      <c r="D245">
+        <v>618.02910154993901</v>
+      </c>
+      <c r="E245">
+        <v>1000</v>
+      </c>
+      <c r="F245">
+        <v>139.085177733065</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>245</v>
+      </c>
+      <c r="C246">
+        <v>9.9225352112676095</v>
+      </c>
+      <c r="D246">
+        <v>618.65373979033996</v>
+      </c>
+      <c r="E246">
+        <v>1000</v>
+      </c>
+      <c r="F246">
+        <v>139.29610999329299</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>246</v>
+      </c>
+      <c r="C247">
+        <v>9.9436619718309895</v>
+      </c>
+      <c r="D247">
+        <v>619.27837803074101</v>
+      </c>
+      <c r="E247">
+        <v>1000</v>
+      </c>
+      <c r="F247">
+        <v>139.50704225352101</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>247</v>
+      </c>
+      <c r="C248">
+        <v>9.9647887323943696</v>
+      </c>
+      <c r="D248">
+        <v>619.90301627114297</v>
+      </c>
+      <c r="E248">
+        <v>1000</v>
+      </c>
+      <c r="F248">
+        <v>139.717974513749</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>248</v>
+      </c>
+      <c r="C249">
+        <v>9.9859154929577496</v>
+      </c>
+      <c r="D249">
+        <v>620.52765451154403</v>
+      </c>
+      <c r="E249">
+        <v>1000</v>
+      </c>
+      <c r="F249">
+        <v>139.92890677397699</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>249</v>
+      </c>
+      <c r="C250">
+        <v>10.007042253521099</v>
+      </c>
+      <c r="D250">
+        <v>621.15229275194497</v>
+      </c>
+      <c r="E250">
+        <v>1000</v>
+      </c>
+      <c r="F250">
+        <v>140.13983903420501</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>250</v>
+      </c>
+      <c r="C251">
+        <v>10.028169014084501</v>
+      </c>
+      <c r="D251">
+        <v>621.77693099234705</v>
+      </c>
+      <c r="E251">
+        <v>1000</v>
+      </c>
+      <c r="F251">
+        <v>140.350771294433</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>251</v>
+      </c>
+      <c r="C252">
+        <v>10.0492957746479</v>
+      </c>
+      <c r="D252">
+        <v>622.40156923274799</v>
+      </c>
+      <c r="E252">
+        <v>1000</v>
+      </c>
+      <c r="F252">
+        <v>140.56170355466099</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>252</v>
+      </c>
+      <c r="C253">
+        <v>10.0704225352113</v>
+      </c>
+      <c r="D253">
+        <v>623.02620747314904</v>
+      </c>
+      <c r="E253">
+        <v>1000</v>
+      </c>
+      <c r="F253">
+        <v>140.77263581488899</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>253</v>
+      </c>
+      <c r="C254">
+        <v>10.0915492957746</v>
+      </c>
+      <c r="D254">
+        <v>623.65084571355101</v>
+      </c>
+      <c r="E254">
+        <v>1000</v>
+      </c>
+      <c r="F254">
+        <v>140.98356807511701</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>254</v>
+      </c>
+      <c r="C255">
+        <v>10.112676056338</v>
+      </c>
+      <c r="D255">
+        <v>624.27548395395195</v>
+      </c>
+      <c r="E255">
+        <v>1000</v>
+      </c>
+      <c r="F255">
+        <v>141.194500335345</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>255</v>
+      </c>
+      <c r="C256">
+        <v>10.133802816901399</v>
+      </c>
+      <c r="D256">
+        <v>624.900122194353</v>
+      </c>
+      <c r="E256">
+        <v>1000</v>
+      </c>
+      <c r="F256">
+        <v>141.40543259557299</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>256</v>
+      </c>
+      <c r="C257">
+        <v>10.154929577464801</v>
+      </c>
+      <c r="D257">
+        <v>625.52476043475497</v>
+      </c>
+      <c r="E257">
+        <v>1000</v>
+      </c>
+      <c r="F257">
+        <v>141.61636485580101</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>257</v>
+      </c>
+      <c r="C258">
+        <v>10.1760563380282</v>
+      </c>
+      <c r="D258">
+        <v>626.14939867515602</v>
+      </c>
+      <c r="E258">
+        <v>1000</v>
+      </c>
+      <c r="F258">
+        <v>141.827297116029</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>258</v>
+      </c>
+      <c r="C259">
+        <v>10.1971830985915</v>
+      </c>
+      <c r="D259">
+        <v>626.77403691555696</v>
+      </c>
+      <c r="E259">
+        <v>1000</v>
+      </c>
+      <c r="F259">
+        <v>142.03822937625799</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>259</v>
+      </c>
+      <c r="C260">
+        <v>10.2183098591549</v>
+      </c>
+      <c r="D260">
+        <v>627.39867515595904</v>
+      </c>
+      <c r="E260">
+        <v>1000</v>
+      </c>
+      <c r="F260">
+        <v>142.24916163648601</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>260</v>
+      </c>
+      <c r="C261">
+        <v>10.239436619718299</v>
+      </c>
+      <c r="D261">
+        <v>628.02331339635998</v>
+      </c>
+      <c r="E261">
+        <v>1000</v>
+      </c>
+      <c r="F261">
+        <v>142.460093896714</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>261</v>
+      </c>
+      <c r="C262">
+        <v>10.260563380281701</v>
+      </c>
+      <c r="D262">
+        <v>628.64795163676104</v>
+      </c>
+      <c r="E262">
+        <v>1000</v>
+      </c>
+      <c r="F262">
+        <v>142.67102615694199</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>262</v>
+      </c>
+      <c r="C263">
+        <v>10.2816901408451</v>
+      </c>
+      <c r="D263">
+        <v>629.27258987716198</v>
+      </c>
+      <c r="E263">
+        <v>1000</v>
+      </c>
+      <c r="F263">
+        <v>142.88195841717001</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>263</v>
+      </c>
+      <c r="C264">
+        <v>10.3028169014085</v>
+      </c>
+      <c r="D264">
+        <v>629.89722811756405</v>
+      </c>
+      <c r="E264">
+        <v>1000</v>
+      </c>
+      <c r="F264">
+        <v>143.092890677398</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>264</v>
+      </c>
+      <c r="C265">
+        <v>10.3239436619718</v>
+      </c>
+      <c r="D265">
+        <v>630.521866357965</v>
+      </c>
+      <c r="E265">
+        <v>1000</v>
+      </c>
+      <c r="F265">
+        <v>143.30382293762599</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>265</v>
+      </c>
+      <c r="C266">
+        <v>10.345070422535199</v>
+      </c>
+      <c r="D266">
+        <v>631.14650459836605</v>
+      </c>
+      <c r="E266">
+        <v>1000</v>
+      </c>
+      <c r="F266">
+        <v>143.51475519785399</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>266</v>
+      </c>
+      <c r="C267">
+        <v>10.366197183098601</v>
+      </c>
+      <c r="D267">
+        <v>631.77114283876801</v>
+      </c>
+      <c r="E267">
+        <v>1000</v>
+      </c>
+      <c r="F267">
+        <v>143.72568745808201</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>267</v>
+      </c>
+      <c r="C268">
+        <v>10.387323943662</v>
+      </c>
+      <c r="D268">
+        <v>632.39578107916896</v>
+      </c>
+      <c r="E268">
+        <v>1000</v>
+      </c>
+      <c r="F268">
+        <v>143.93661971831</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>268</v>
+      </c>
+      <c r="C269">
+        <v>10.4084507042254</v>
+      </c>
+      <c r="D269">
+        <v>633.02041931957001</v>
+      </c>
+      <c r="E269">
+        <v>1000</v>
+      </c>
+      <c r="F269">
+        <v>144.14755197853799</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>269</v>
+      </c>
+      <c r="C270">
+        <v>10.4295774647887</v>
+      </c>
+      <c r="D270">
+        <v>633.64505755997197</v>
+      </c>
+      <c r="E270">
+        <v>1000</v>
+      </c>
+      <c r="F270">
+        <v>144.35848423876601</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>270</v>
+      </c>
+      <c r="C271">
+        <v>10.4507042253521</v>
+      </c>
+      <c r="D271">
+        <v>634.26969580037303</v>
+      </c>
+      <c r="E271">
+        <v>1000</v>
+      </c>
+      <c r="F271">
+        <v>144.569416498994</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>271</v>
+      </c>
+      <c r="C272">
+        <v>10.471830985915499</v>
+      </c>
+      <c r="D272">
+        <v>634.89433404077397</v>
+      </c>
+      <c r="E272">
+        <v>1000</v>
+      </c>
+      <c r="F272">
+        <v>144.78034875922199</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>272</v>
+      </c>
+      <c r="C273">
+        <v>10.492957746478901</v>
+      </c>
+      <c r="D273">
+        <v>635.51897228117605</v>
+      </c>
+      <c r="E273">
+        <v>1000</v>
+      </c>
+      <c r="F273">
+        <v>144.99128101945001</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>273</v>
+      </c>
+      <c r="C274">
+        <v>10.5140845070423</v>
+      </c>
+      <c r="D274">
+        <v>636.14361052157699</v>
+      </c>
+      <c r="E274">
+        <v>1000</v>
+      </c>
+      <c r="F274">
+        <v>145.20221327967801</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>274</v>
+      </c>
+      <c r="C275">
+        <v>10.5352112676056</v>
+      </c>
+      <c r="D275">
+        <v>636.76824876197804</v>
+      </c>
+      <c r="E275">
+        <v>1000</v>
+      </c>
+      <c r="F275">
+        <v>145.413145539906</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>275</v>
+      </c>
+      <c r="C276">
+        <v>10.556338028169</v>
+      </c>
+      <c r="D276">
+        <v>637.39288700238001</v>
+      </c>
+      <c r="E276">
+        <v>1000</v>
+      </c>
+      <c r="F276">
+        <v>145.62407780013399</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>276</v>
+      </c>
+      <c r="C277">
+        <v>10.577464788732399</v>
+      </c>
+      <c r="D277">
+        <v>638.01752524278095</v>
+      </c>
+      <c r="E277">
+        <v>1000</v>
+      </c>
+      <c r="F277">
+        <v>145.83501006036201</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>277</v>
+      </c>
+      <c r="C278">
+        <v>10.598591549295801</v>
+      </c>
+      <c r="D278">
+        <v>638.642163483182</v>
+      </c>
+      <c r="E278">
+        <v>1000</v>
+      </c>
+      <c r="F278">
+        <v>146.04594232059</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>278</v>
+      </c>
+      <c r="C279">
+        <v>10.6197183098592</v>
+      </c>
+      <c r="D279">
+        <v>639.26680172358294</v>
+      </c>
+      <c r="E279">
+        <v>1000</v>
+      </c>
+      <c r="F279">
+        <v>146.25687458081799</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>279</v>
+      </c>
+      <c r="C280">
+        <v>10.6408450704225</v>
+      </c>
+      <c r="D280">
+        <v>639.89143996398502</v>
+      </c>
+      <c r="E280">
+        <v>1000</v>
+      </c>
+      <c r="F280">
+        <v>146.46780684104601</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>280</v>
+      </c>
+      <c r="C281">
+        <v>10.6619718309859</v>
+      </c>
+      <c r="D281">
+        <v>640.51607820438596</v>
+      </c>
+      <c r="E281">
+        <v>1000</v>
+      </c>
+      <c r="F281">
+        <v>146.678739101274</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>281</v>
+      </c>
+      <c r="C282">
+        <v>10.6830985915493</v>
+      </c>
+      <c r="D282">
+        <v>641.14071644478702</v>
+      </c>
+      <c r="E282">
+        <v>1000</v>
+      </c>
+      <c r="F282">
+        <v>146.889671361502</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>282</v>
+      </c>
+      <c r="C283">
+        <v>10.704225352112701</v>
+      </c>
+      <c r="D283">
+        <v>641.76535468518898</v>
+      </c>
+      <c r="E283">
+        <v>1000</v>
+      </c>
+      <c r="F283">
+        <v>147.10060362172999</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>283</v>
+      </c>
+      <c r="C284">
+        <v>10.7253521126761</v>
+      </c>
+      <c r="D284">
+        <v>642.38999292559004</v>
+      </c>
+      <c r="E284">
+        <v>1000</v>
+      </c>
+      <c r="F284">
+        <v>147.31153588195801</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>284</v>
+      </c>
+      <c r="C285">
+        <v>10.746478873239401</v>
+      </c>
+      <c r="D285">
+        <v>643.01463116599098</v>
+      </c>
+      <c r="E285">
+        <v>1000</v>
+      </c>
+      <c r="F285">
+        <v>147.522468142186</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>285</v>
+      </c>
+      <c r="C286">
+        <v>10.7676056338028</v>
+      </c>
+      <c r="D286">
+        <v>643.63926940639305</v>
+      </c>
+      <c r="E286">
+        <v>1000</v>
+      </c>
+      <c r="F286">
+        <v>147.73340040241399</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>286</v>
+      </c>
+      <c r="C287">
+        <v>10.7887323943662</v>
+      </c>
+      <c r="D287">
+        <v>644.263907646794</v>
+      </c>
+      <c r="E287">
+        <v>1000</v>
+      </c>
+      <c r="F287">
+        <v>147.94433266264201</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>287</v>
+      </c>
+      <c r="C288">
+        <v>10.809859154929599</v>
+      </c>
+      <c r="D288">
+        <v>644.88854588719505</v>
+      </c>
+      <c r="E288">
+        <v>1000</v>
+      </c>
+      <c r="F288">
+        <v>148.155264922871</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>288</v>
+      </c>
+      <c r="C289">
+        <v>10.830985915493001</v>
+      </c>
+      <c r="D289">
+        <v>645.51318412759701</v>
+      </c>
+      <c r="E289">
+        <v>1000</v>
+      </c>
+      <c r="F289">
+        <v>148.36619718309899</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>289</v>
+      </c>
+      <c r="C290">
+        <v>10.852112676056301</v>
+      </c>
+      <c r="D290">
+        <v>646.13782236799796</v>
+      </c>
+      <c r="E290">
+        <v>1000</v>
+      </c>
+      <c r="F290">
+        <v>148.57712944332701</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>290</v>
+      </c>
+      <c r="C291">
+        <v>10.8732394366197</v>
+      </c>
+      <c r="D291">
+        <v>646.76246060839901</v>
+      </c>
+      <c r="E291">
+        <v>1000</v>
+      </c>
+      <c r="F291">
+        <v>148.788061703555</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>291</v>
+      </c>
+      <c r="C292">
+        <v>10.8943661971831</v>
+      </c>
+      <c r="D292">
+        <v>647.38709884880097</v>
+      </c>
+      <c r="E292">
+        <v>1000</v>
+      </c>
+      <c r="F292">
+        <v>148.99899396378299</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>292</v>
+      </c>
+      <c r="C293">
+        <v>10.915492957746499</v>
+      </c>
+      <c r="D293">
+        <v>648.01173708920203</v>
+      </c>
+      <c r="E293">
+        <v>1000</v>
+      </c>
+      <c r="F293">
+        <v>149.20992622401101</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>293</v>
+      </c>
+      <c r="C294">
+        <v>10.936619718309901</v>
+      </c>
+      <c r="D294">
+        <v>648.63637532960297</v>
+      </c>
+      <c r="E294">
+        <v>1000</v>
+      </c>
+      <c r="F294">
+        <v>149.42085848423901</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>294</v>
+      </c>
+      <c r="C295">
+        <v>10.957746478873201</v>
+      </c>
+      <c r="D295">
+        <v>649.26101357000402</v>
+      </c>
+      <c r="E295">
+        <v>1000</v>
+      </c>
+      <c r="F295">
+        <v>149.631790744467</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>295</v>
+      </c>
+      <c r="C296">
+        <v>10.9788732394366</v>
+      </c>
+      <c r="D296">
+        <v>649.88565181040599</v>
+      </c>
+      <c r="E296">
+        <v>1000</v>
+      </c>
+      <c r="F296">
+        <v>149.84272300469499</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>296</v>
+      </c>
+      <c r="C297">
+        <v>11</v>
+      </c>
+      <c r="D297">
+        <v>650.51029005080704</v>
+      </c>
+      <c r="E297">
+        <v>1000</v>
+      </c>
+      <c r="F297">
+        <v>150.05365526492301</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>297</v>
+      </c>
+      <c r="C298">
+        <v>11.0211267605634</v>
+      </c>
+      <c r="D298">
+        <v>651.13492829120798</v>
+      </c>
+      <c r="E298">
+        <v>1000</v>
+      </c>
+      <c r="F298">
+        <v>150.264587525151</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>298</v>
+      </c>
+      <c r="C299">
+        <v>11.042253521126799</v>
+      </c>
+      <c r="D299">
+        <v>651.75956653160995</v>
+      </c>
+      <c r="E299">
+        <v>1000</v>
+      </c>
+      <c r="F299">
+        <v>150.47551978537899</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>299</v>
+      </c>
+      <c r="C300">
+        <v>11.063380281690099</v>
+      </c>
+      <c r="D300">
+        <v>652.384204772011</v>
+      </c>
+      <c r="E300">
+        <v>1000</v>
+      </c>
+      <c r="F300">
+        <v>150.68645204560701</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <v>300</v>
+      </c>
+      <c r="C301">
+        <v>11.084507042253501</v>
+      </c>
+      <c r="D301">
+        <v>653.00884301241194</v>
+      </c>
+      <c r="E301">
+        <v>1000</v>
+      </c>
+      <c r="F301">
+        <v>150.897384305835</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <v>301</v>
+      </c>
+      <c r="C302">
+        <v>11.1056338028169</v>
+      </c>
+      <c r="D302">
+        <v>653.63348125281402</v>
+      </c>
+      <c r="E302">
+        <v>1000</v>
+      </c>
+      <c r="F302">
+        <v>151.108316566063</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <v>302</v>
+      </c>
+      <c r="C303">
+        <v>11.1267605633803</v>
+      </c>
+      <c r="D303">
+        <v>654.25811949321496</v>
+      </c>
+      <c r="E303">
+        <v>1000</v>
+      </c>
+      <c r="F303">
+        <v>151.31924882629099</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B304">
+        <v>303</v>
+      </c>
+      <c r="C304">
+        <v>11.147887323943699</v>
+      </c>
+      <c r="D304">
+        <v>654.88275773361602</v>
+      </c>
+      <c r="E304">
+        <v>1000</v>
+      </c>
+      <c r="F304">
+        <v>151.53018108651901</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <v>304</v>
+      </c>
+      <c r="C305">
+        <v>11.169014084506999</v>
+      </c>
+      <c r="D305">
+        <v>655.50739597401798</v>
+      </c>
+      <c r="E305">
+        <v>1000</v>
+      </c>
+      <c r="F305">
+        <v>151.741113346747</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B306">
+        <v>305</v>
+      </c>
+      <c r="C306">
+        <v>11.190140845070401</v>
+      </c>
+      <c r="D306">
+        <v>656.13203421441904</v>
+      </c>
+      <c r="E306">
+        <v>1000</v>
+      </c>
+      <c r="F306">
+        <v>151.95204560697499</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <v>306</v>
+      </c>
+      <c r="C307">
+        <v>11.2112676056338</v>
+      </c>
+      <c r="D307">
+        <v>656.75667245481998</v>
+      </c>
+      <c r="E307">
+        <v>1000</v>
+      </c>
+      <c r="F307">
+        <v>152.16297786720301</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <v>307</v>
+      </c>
+      <c r="C308">
+        <v>11.2323943661972</v>
+      </c>
+      <c r="D308">
+        <v>657.38131069522206</v>
+      </c>
+      <c r="E308">
+        <v>1000</v>
+      </c>
+      <c r="F308">
+        <v>152.373910127431</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <v>308</v>
+      </c>
+      <c r="C309">
+        <v>11.253521126760599</v>
+      </c>
+      <c r="D309">
+        <v>658.005948935623</v>
+      </c>
+      <c r="E309">
+        <v>1000</v>
+      </c>
+      <c r="F309">
+        <v>152.58484238765899</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B310">
+        <v>309</v>
+      </c>
+      <c r="C310">
+        <v>11.2746478873239</v>
+      </c>
+      <c r="D310">
+        <v>658.63058717602405</v>
+      </c>
+      <c r="E310">
+        <v>1000</v>
+      </c>
+      <c r="F310">
+        <v>152.79577464788699</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <v>310</v>
+      </c>
+      <c r="C311">
+        <v>11.295774647887299</v>
+      </c>
+      <c r="D311">
+        <v>659.25522541642499</v>
+      </c>
+      <c r="E311">
+        <v>1000</v>
+      </c>
+      <c r="F311">
+        <v>153.00670690811501</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <v>311</v>
+      </c>
+      <c r="C312">
+        <v>11.3169014084507</v>
+      </c>
+      <c r="D312">
+        <v>659.87986365682696</v>
+      </c>
+      <c r="E312">
+        <v>1000</v>
+      </c>
+      <c r="F312">
+        <v>153.217639168343</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B313">
+        <v>312</v>
+      </c>
+      <c r="C313">
+        <v>11.3380281690141</v>
+      </c>
+      <c r="D313">
+        <v>660.50450189722801</v>
+      </c>
+      <c r="E313">
+        <v>1000</v>
+      </c>
+      <c r="F313">
+        <v>153.42857142857099</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B314">
+        <v>313</v>
+      </c>
+      <c r="C314">
+        <v>11.3591549295775</v>
+      </c>
+      <c r="D314">
+        <v>661.12914013762895</v>
+      </c>
+      <c r="E314">
+        <v>1000</v>
+      </c>
+      <c r="F314">
+        <v>153.63950368879901</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B315">
+        <v>314</v>
+      </c>
+      <c r="C315">
+        <v>11.3802816901408</v>
+      </c>
+      <c r="D315">
+        <v>661.75377837803103</v>
+      </c>
+      <c r="E315">
+        <v>1000</v>
+      </c>
+      <c r="F315">
+        <v>153.850435949027</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B316">
+        <v>315</v>
+      </c>
+      <c r="C316">
+        <v>11.401408450704199</v>
+      </c>
+      <c r="D316">
+        <v>662.37841661843197</v>
+      </c>
+      <c r="E316">
+        <v>1000</v>
+      </c>
+      <c r="F316">
+        <v>154.06136820925499</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B317">
+        <v>316</v>
+      </c>
+      <c r="C317">
+        <v>11.422535211267601</v>
+      </c>
+      <c r="D317">
+        <v>663.00305485883302</v>
+      </c>
+      <c r="E317">
+        <v>1000</v>
+      </c>
+      <c r="F317">
+        <v>154.27230046948401</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B318">
+        <v>317</v>
+      </c>
+      <c r="C318">
+        <v>11.443661971831</v>
+      </c>
+      <c r="D318">
+        <v>663.62769309923499</v>
+      </c>
+      <c r="E318">
+        <v>1000</v>
+      </c>
+      <c r="F318">
+        <v>154.483232729712</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <v>318</v>
+      </c>
+      <c r="C319">
+        <v>11.4647887323944</v>
+      </c>
+      <c r="D319">
+        <v>664.25233133963604</v>
+      </c>
+      <c r="E319">
+        <v>1000</v>
+      </c>
+      <c r="F319">
+        <v>154.69416498993999</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <v>319</v>
+      </c>
+      <c r="C320">
+        <v>11.4859154929577</v>
+      </c>
+      <c r="D320">
+        <v>664.87696958003698</v>
+      </c>
+      <c r="E320">
+        <v>1000</v>
+      </c>
+      <c r="F320">
+        <v>154.90509725016801</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>320</v>
+      </c>
+      <c r="C321">
+        <v>11.507042253521099</v>
+      </c>
+      <c r="D321">
+        <v>665.50160782043895</v>
+      </c>
+      <c r="E321">
+        <v>1000</v>
+      </c>
+      <c r="F321">
+        <v>155.116029510396</v>
+      </c>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <v>321</v>
+      </c>
+      <c r="C322">
+        <v>11.528169014084501</v>
+      </c>
+      <c r="D322">
+        <v>666.12624606084</v>
+      </c>
+      <c r="E322">
+        <v>1000</v>
+      </c>
+      <c r="F322">
+        <v>155.326961770624</v>
+      </c>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <v>322</v>
+      </c>
+      <c r="C323">
+        <v>11.5492957746479</v>
+      </c>
+      <c r="D323">
+        <v>666.75088430124094</v>
+      </c>
+      <c r="E323">
+        <v>1000</v>
+      </c>
+      <c r="F323">
+        <v>155.53789403085199</v>
+      </c>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B324">
+        <v>323</v>
+      </c>
+      <c r="C324">
+        <v>11.5704225352113</v>
+      </c>
+      <c r="D324">
+        <v>667.37552254164302</v>
+      </c>
+      <c r="E324">
+        <v>1000</v>
+      </c>
+      <c r="F324">
+        <v>155.74882629108001</v>
+      </c>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B325">
+        <v>324</v>
+      </c>
+      <c r="C325">
+        <v>11.5915492957746</v>
+      </c>
+      <c r="D325">
+        <v>668.00016078204396</v>
+      </c>
+      <c r="E325">
+        <v>1000</v>
+      </c>
+      <c r="F325">
+        <v>155.959758551308</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B326">
+        <v>325</v>
+      </c>
+      <c r="C326">
+        <v>11.612676056338</v>
+      </c>
+      <c r="D326">
+        <v>668.62479902244502</v>
+      </c>
+      <c r="E326">
+        <v>1000</v>
+      </c>
+      <c r="F326">
+        <v>156.17069081153599</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B327">
+        <v>326</v>
+      </c>
+      <c r="C327">
+        <v>11.633802816901399</v>
+      </c>
+      <c r="D327">
+        <v>669.24943726284596</v>
+      </c>
+      <c r="E327">
+        <v>1000</v>
+      </c>
+      <c r="F327">
+        <v>156.38162307176401</v>
+      </c>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B328">
+        <v>327</v>
+      </c>
+      <c r="C328">
+        <v>11.654929577464801</v>
+      </c>
+      <c r="D328">
+        <v>669.87407550324804</v>
+      </c>
+      <c r="E328">
+        <v>1000</v>
+      </c>
+      <c r="F328">
+        <v>156.592555331992</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B329">
+        <v>328</v>
+      </c>
+      <c r="C329">
+        <v>11.6760563380282</v>
+      </c>
+      <c r="D329">
+        <v>670.49871374364898</v>
+      </c>
+      <c r="E329">
+        <v>1000</v>
+      </c>
+      <c r="F329">
+        <v>156.80348759221999</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B330">
+        <v>329</v>
+      </c>
+      <c r="C330">
+        <v>11.6971830985915</v>
+      </c>
+      <c r="D330">
+        <v>671.12335198405003</v>
+      </c>
+      <c r="E330">
+        <v>1000</v>
+      </c>
+      <c r="F330">
+        <v>157.01441985244799</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B331">
+        <v>330</v>
+      </c>
+      <c r="C331">
+        <v>11.7183098591549</v>
+      </c>
+      <c r="D331">
+        <v>671.747990224452</v>
+      </c>
+      <c r="E331">
+        <v>1000</v>
+      </c>
+      <c r="F331">
+        <v>157.22535211267601</v>
+      </c>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B332">
+        <v>331</v>
+      </c>
+      <c r="C332">
+        <v>11.739436619718299</v>
+      </c>
+      <c r="D332">
+        <v>672.37262846485305</v>
+      </c>
+      <c r="E332">
+        <v>1000</v>
+      </c>
+      <c r="F332">
+        <v>157.436284372904</v>
+      </c>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B333">
+        <v>332</v>
+      </c>
+      <c r="C333">
+        <v>11.760563380281701</v>
+      </c>
+      <c r="D333">
+        <v>672.99726670525399</v>
+      </c>
+      <c r="E333">
+        <v>1000</v>
+      </c>
+      <c r="F333">
+        <v>157.64721663313199</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B334">
+        <v>333</v>
+      </c>
+      <c r="C334">
+        <v>11.7816901408451</v>
+      </c>
+      <c r="D334">
+        <v>673.62190494565596</v>
+      </c>
+      <c r="E334">
+        <v>1000</v>
+      </c>
+      <c r="F334">
+        <v>157.85814889336001</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B335">
+        <v>334</v>
+      </c>
+      <c r="C335">
+        <v>11.8028169014085</v>
+      </c>
+      <c r="D335">
+        <v>674.24654318605701</v>
+      </c>
+      <c r="E335">
+        <v>1000</v>
+      </c>
+      <c r="F335">
+        <v>158.069081153588</v>
+      </c>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B336">
+        <v>335</v>
+      </c>
+      <c r="C336">
+        <v>11.8239436619718</v>
+      </c>
+      <c r="D336">
+        <v>674.87118142645795</v>
+      </c>
+      <c r="E336">
+        <v>1000</v>
+      </c>
+      <c r="F336">
+        <v>158.28001341381599</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <v>336</v>
+      </c>
+      <c r="C337">
+        <v>11.845070422535199</v>
+      </c>
+      <c r="D337">
+        <v>675.49581966686003</v>
+      </c>
+      <c r="E337">
+        <v>1000</v>
+      </c>
+      <c r="F337">
+        <v>158.49094567404401</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B338">
+        <v>337</v>
+      </c>
+      <c r="C338">
+        <v>11.866197183098601</v>
+      </c>
+      <c r="D338">
+        <v>676.12045790726097</v>
+      </c>
+      <c r="E338">
+        <v>1000</v>
+      </c>
+      <c r="F338">
+        <v>158.70187793427201</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <v>338</v>
+      </c>
+      <c r="C339">
+        <v>11.887323943662</v>
+      </c>
+      <c r="D339">
+        <v>676.74509614766203</v>
+      </c>
+      <c r="E339">
+        <v>1000</v>
+      </c>
+      <c r="F339">
+        <v>158.9128101945</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <v>339</v>
+      </c>
+      <c r="C340">
+        <v>11.9084507042254</v>
+      </c>
+      <c r="D340">
+        <v>677.36973438806399</v>
+      </c>
+      <c r="E340">
+        <v>1000</v>
+      </c>
+      <c r="F340">
+        <v>159.12374245472799</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B341">
+        <v>340</v>
+      </c>
+      <c r="C341">
+        <v>11.9295774647887</v>
+      </c>
+      <c r="D341">
+        <v>677.99437262846504</v>
+      </c>
+      <c r="E341">
+        <v>1000</v>
+      </c>
+      <c r="F341">
+        <v>159.33467471495601</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <v>341</v>
+      </c>
+      <c r="C342">
+        <v>11.9507042253521</v>
+      </c>
+      <c r="D342">
+        <v>678.61901086886598</v>
+      </c>
+      <c r="E342">
+        <v>1000</v>
+      </c>
+      <c r="F342">
+        <v>159.545606975184</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <v>342</v>
+      </c>
+      <c r="C343">
+        <v>11.971830985915499</v>
+      </c>
+      <c r="D343">
+        <v>679.24364910926704</v>
+      </c>
+      <c r="E343">
+        <v>1000</v>
+      </c>
+      <c r="F343">
+        <v>159.75653923541299</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <v>343</v>
+      </c>
+      <c r="C344">
+        <v>11.992957746478901</v>
+      </c>
+      <c r="D344">
+        <v>679.868287349669</v>
+      </c>
+      <c r="E344">
+        <v>1000</v>
+      </c>
+      <c r="F344">
+        <v>159.96747149564001</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <v>344</v>
+      </c>
+      <c r="C345">
+        <v>12.0140845070423</v>
+      </c>
+      <c r="D345">
+        <v>680.49292559006994</v>
+      </c>
+      <c r="E345">
+        <v>1000</v>
+      </c>
+      <c r="F345">
+        <v>160.178403755868</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <v>345</v>
+      </c>
+      <c r="C346">
+        <v>12.0352112676056</v>
+      </c>
+      <c r="D346">
+        <v>681.117563830471</v>
+      </c>
+      <c r="E346">
+        <v>1000</v>
+      </c>
+      <c r="F346">
+        <v>160.38933601609699</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B347">
+        <v>346</v>
+      </c>
+      <c r="C347">
+        <v>12.056338028169</v>
+      </c>
+      <c r="D347">
+        <v>681.74220207087296</v>
+      </c>
+      <c r="E347">
+        <v>1000</v>
+      </c>
+      <c r="F347">
+        <v>160.60026827632501</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B348">
+        <v>347</v>
+      </c>
+      <c r="C348">
+        <v>12.077464788732399</v>
+      </c>
+      <c r="D348">
+        <v>682.36684031127402</v>
+      </c>
+      <c r="E348">
+        <v>1000</v>
+      </c>
+      <c r="F348">
+        <v>160.811200536553</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B349">
+        <v>348</v>
+      </c>
+      <c r="C349">
+        <v>12.098591549295801</v>
+      </c>
+      <c r="D349">
+        <v>682.99147855167496</v>
+      </c>
+      <c r="E349">
+        <v>1000</v>
+      </c>
+      <c r="F349">
+        <v>161.02213279678099</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B350">
+        <v>349</v>
+      </c>
+      <c r="C350">
+        <v>12.1197183098592</v>
+      </c>
+      <c r="D350">
+        <v>683.61611679207704</v>
+      </c>
+      <c r="E350">
+        <v>1000</v>
+      </c>
+      <c r="F350">
+        <v>161.23306505700899</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B351">
+        <v>350</v>
+      </c>
+      <c r="C351">
+        <v>12.1408450704225</v>
+      </c>
+      <c r="D351">
+        <v>684.24075503247798</v>
+      </c>
+      <c r="E351">
+        <v>1000</v>
+      </c>
+      <c r="F351">
+        <v>161.44399731723701</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B352">
+        <v>351</v>
+      </c>
+      <c r="C352">
+        <v>12.1619718309859</v>
+      </c>
+      <c r="D352">
+        <v>684.86539327287903</v>
+      </c>
+      <c r="E352">
+        <v>1000</v>
+      </c>
+      <c r="F352">
+        <v>161.654929577465</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B353">
+        <v>352</v>
+      </c>
+      <c r="C353">
+        <v>12.1830985915493</v>
+      </c>
+      <c r="D353">
+        <v>685.490031513281</v>
+      </c>
+      <c r="E353">
+        <v>1000</v>
+      </c>
+      <c r="F353">
+        <v>161.86586183769299</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B354">
+        <v>353</v>
+      </c>
+      <c r="C354">
+        <v>12.204225352112701</v>
+      </c>
+      <c r="D354">
+        <v>686.11466975368205</v>
+      </c>
+      <c r="E354">
+        <v>1000</v>
+      </c>
+      <c r="F354">
+        <v>162.07679409792101</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B355">
+        <v>354</v>
+      </c>
+      <c r="C355">
+        <v>12.2253521126761</v>
+      </c>
+      <c r="D355">
+        <v>686.73930799408299</v>
+      </c>
+      <c r="E355">
+        <v>1000</v>
+      </c>
+      <c r="F355">
+        <v>162.287726358149</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B356">
+        <v>355</v>
+      </c>
+      <c r="C356">
+        <v>12.246478873239401</v>
+      </c>
+      <c r="D356">
+        <v>687.36394623448496</v>
+      </c>
+      <c r="E356">
+        <v>1000</v>
+      </c>
+      <c r="F356">
+        <v>162.49865861837699</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B357">
+        <v>356</v>
+      </c>
+      <c r="C357">
+        <v>12.2676056338028</v>
+      </c>
+      <c r="D357">
+        <v>687.98858447488601</v>
+      </c>
+      <c r="E357">
+        <v>1000</v>
+      </c>
+      <c r="F357">
+        <v>162.70959087860501</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B358">
+        <v>357</v>
+      </c>
+      <c r="C358">
+        <v>12.2887323943662</v>
+      </c>
+      <c r="D358">
+        <v>688.61322271528695</v>
+      </c>
+      <c r="E358">
+        <v>1000</v>
+      </c>
+      <c r="F358">
+        <v>162.920523138833</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B359">
+        <v>358</v>
+      </c>
+      <c r="C359">
+        <v>12.309859154929599</v>
+      </c>
+      <c r="D359">
+        <v>689.23786095568801</v>
+      </c>
+      <c r="E359">
+        <v>1000</v>
+      </c>
+      <c r="F359">
+        <v>163.131455399061</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B360">
+        <v>359</v>
+      </c>
+      <c r="C360">
+        <v>12.330985915493001</v>
+      </c>
+      <c r="D360">
+        <v>689.86249919608997</v>
+      </c>
+      <c r="E360">
+        <v>1000</v>
+      </c>
+      <c r="F360">
+        <v>163.34238765928899</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B361">
+        <v>360</v>
+      </c>
+      <c r="C361">
+        <v>12.352112676056301</v>
+      </c>
+      <c r="D361">
+        <v>690.48713743649103</v>
+      </c>
+      <c r="E361">
+        <v>1000</v>
+      </c>
+      <c r="F361">
+        <v>163.55331991951701</v>
       </c>
     </row>
   </sheetData>
